--- a/人工及辅材工程.xlsx
+++ b/人工及辅材工程.xlsx
@@ -589,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -770,16 +770,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -891,7 +917,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,7 +947,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,28 +965,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,10 +995,10 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,7 +1056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1125,9 +1151,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1480,8 +1536,8 @@
   <sheetPr/>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2141,38 +2197,38 @@
       <c r="E61" s="16"/>
     </row>
     <row r="62" ht="14.25" spans="1:5">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="34"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="36"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="32" t="s">
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
+    </row>
+    <row r="65" ht="14.25" spans="1:5">
+      <c r="A65" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
